--- a/기능 상세.xlsx
+++ b/기능 상세.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATASTOR\Programming\SOURCETREE\Mused_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -807,16 +807,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,9 +819,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,28 +853,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,18 +1168,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.25" customWidth="1"/>
-    <col min="5" max="5" width="62.375" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3984375" customWidth="1"/>
+    <col min="5" max="5" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:5" ht="36" thickTop="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>79</v>
       </c>
@@ -1196,24 +1197,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickTop="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" ht="18" thickTop="1">
+      <c r="A2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="33">
-      <c r="A3" s="8"/>
-      <c r="B3" s="26" t="s">
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="26"/>
+      <c r="B3" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1222,26 +1223,26 @@
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="33">
-      <c r="A4" s="8"/>
-      <c r="B4" s="26"/>
+    <row r="4" spans="1:5" ht="34.799999999999997">
+      <c r="A4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="23" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1250,11 +1251,11 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="33">
-      <c r="A6" s="8"/>
-      <c r="B6" s="26" t="s">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="34.799999999999997">
+      <c r="A6" s="26"/>
+      <c r="B6" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1263,37 +1264,37 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1302,63 +1303,63 @@
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="33">
-      <c r="A13" s="8"/>
-      <c r="B13" s="26"/>
+    <row r="13" spans="1:5" ht="34.799999999999997">
+      <c r="A13" s="26"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1367,26 +1368,26 @@
       <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="33">
-      <c r="A16" s="8"/>
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="1:5" ht="34.799999999999997">
+      <c r="A16" s="26"/>
+      <c r="B16" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1395,13 +1396,13 @@
       <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1410,13 +1411,13 @@
       <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33">
-      <c r="A18" s="8"/>
-      <c r="B18" s="28" t="s">
+    <row r="18" spans="1:5" ht="34.799999999999997">
+      <c r="A18" s="26"/>
+      <c r="B18" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1425,11 +1426,11 @@
       <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1438,54 +1439,54 @@
       <c r="D19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33.75" thickBot="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="22" t="s">
+    <row r="20" spans="1:5" ht="35.4" thickBot="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33.75" thickTop="1">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:5" ht="35.4" thickTop="1">
+      <c r="A21" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1494,22 +1495,22 @@
       <c r="D23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="24" t="s">
+    <row r="24" spans="1:5" ht="18" thickBot="1">
+      <c r="A24" s="28"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" thickTop="1"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:B4"/>

--- a/기능 상세.xlsx
+++ b/기능 상세.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1168,12 +1168,12 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E24" sqref="A1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.296875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.3984375" customWidth="1"/>
@@ -1320,7 +1320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="34.799999999999997">
       <c r="A11" s="26"/>
       <c r="B11" s="25"/>
       <c r="C11" s="3" t="s">
@@ -1346,7 +1346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="34.799999999999997">
+    <row r="13" spans="1:5">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
       <c r="C13" s="3" t="s">
@@ -1456,7 +1456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="35.4" thickTop="1">
+    <row r="21" spans="1:5" ht="18" thickTop="1">
       <c r="A21" s="27" t="s">
         <v>74</v>
       </c>
